--- a/data/trans_bre/P32B-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Clase-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,69</t>
+          <t>-1,01; 2,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -1,27</t>
+          <t>-5,73; -1,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,14</t>
+          <t>-4,56; 0,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 0,84</t>
+          <t>-5,11; 0,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 466,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 163,21</t>
+          <t>-100,0; 144,67</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,34</t>
+          <t>-0,43; 4,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,63</t>
+          <t>-0,39; 4,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,71</t>
+          <t>-3,22; 0,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 4,55</t>
+          <t>0,09; 4,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,0</t>
+          <t>-1,59; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; -2,33</t>
+          <t>-6,74; -2,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 9,86</t>
+          <t>-1,84; 11,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; -0,74</t>
+          <t>-4,78; -0,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1145,6</t>
+          <t>-100,0; 1800,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,09</t>
+          <t>-1,25; 2,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -1,19</t>
+          <t>-4,69; -1,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,85</t>
+          <t>-2,74; 0,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; -0,36</t>
+          <t>-4,06; -0,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,7; 399,1</t>
+          <t>-100,0; 367,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -12,66</t>
+          <t>-100,0; -7,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-85,6; 69,73</t>
+          <t>-87,58; 96,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -13,5</t>
+          <t>-100,0; -9,72</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,66</t>
+          <t>-0,43; 4,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,16</t>
+          <t>-2,13; 2,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; -0,64</t>
+          <t>-3,79; -0,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,03</t>
+          <t>-3,49; 2,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 410,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-78,99; 142,67</t>
+          <t>-83,12; 194,3</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,94</t>
+          <t>-3,02; 0,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,73; -1,3</t>
+          <t>-9,04; -1,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 1,52</t>
+          <t>-3,79; 1,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,66</t>
+          <t>0,0; 9,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -0,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-91,75; 345,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,14</t>
+          <t>-0,53; 1,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; -1,29</t>
+          <t>-3,2; -1,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; -0,21</t>
+          <t>-1,96; -0,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,24</t>
+          <t>-1,85; 0,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-48,83; 208,07</t>
+          <t>-55,01; 176,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-90,36; -48,71</t>
+          <t>-90,3; -46,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-75,25; -5,25</t>
+          <t>-75,47; -11,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-74,39; 19,19</t>
+          <t>-75,3; 23,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32B-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
